--- a/problems/demands/q95.xlsx
+++ b/problems/demands/q95.xlsx
@@ -908,7 +908,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="C29" s="4">
         <v>668</v>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="4">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4">
         <v>334</v>
